--- a/doc/需求/新建 Microsoft Office Excel 工作表 (2).xlsx
+++ b/doc/需求/新建 Microsoft Office Excel 工作表 (2).xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E7826-E4FA-45C3-A406-50218976D711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -112,20 +111,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +130,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +137,6 @@
       <sz val="12"/>
       <color rgb="FFE9E9E9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +145,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -161,16 +155,353 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -193,9 +524,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -203,40 +776,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -252,28 +869,22 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="https://qqadapt.qpic.cn/txdocpic/0/d8c9e9886a6c04a8df72c193c7f4b5af/0?w=1442&amp;h=40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="https://qqadapt.qpic.cn/txdocpic/0/d8c9e9886a6c04a8df72c193c7f4b5af/0?w=1442&amp;h=40"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="15649575" cy="428625"/>
+          <a:ext cx="15452725" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -329,7 +940,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,26 +973,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,23 +1008,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,45 +1178,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" customWidth="1"/>
-    <col min="13" max="13" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" customWidth="1"/>
-    <col min="19" max="19" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5583333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.4416666666667" customWidth="1"/>
+    <col min="12" max="12" width="26.5583333333333" customWidth="1"/>
+    <col min="13" max="13" width="23.4416666666667" customWidth="1"/>
+    <col min="14" max="14" width="20.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="19.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="19.4416666666667" customWidth="1"/>
+    <col min="17" max="17" width="17.1083333333333" customWidth="1"/>
+    <col min="18" max="18" width="20.4416666666667" customWidth="1"/>
+    <col min="19" max="19" width="25.1083333333333" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="21" max="21" width="20.8833333333333" customWidth="1"/>
     <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="22.44140625" customWidth="1"/>
-    <col min="24" max="24" width="26.33203125" customWidth="1"/>
-    <col min="25" max="25" width="26.88671875" customWidth="1"/>
-    <col min="26" max="26" width="22.6640625" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" customWidth="1"/>
-    <col min="28" max="28" width="18.44140625" customWidth="1"/>
+    <col min="23" max="23" width="22.4416666666667" customWidth="1"/>
+    <col min="24" max="24" width="26.3333333333333" customWidth="1"/>
+    <col min="25" max="25" width="26.8833333333333" customWidth="1"/>
+    <col min="26" max="26" width="22.6666666666667" customWidth="1"/>
+    <col min="27" max="27" width="18.3333333333333" customWidth="1"/>
+    <col min="28" max="28" width="18.4416666666667" customWidth="1"/>
     <col min="29" max="29" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.6">
+    <row r="1" ht="14.25" spans="1:33">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -674,7 +1251,7 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="15.6">
+    <row r="2" ht="14.25" spans="1:33">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -709,7 +1286,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="15.6">
+    <row r="3" ht="14.25" spans="1:33">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -744,7 +1321,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="15.6">
+    <row r="4" ht="14.25" spans="1:29">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -799,7 +1376,7 @@
       <c r="R4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T4" s="3" t="s">
@@ -823,213 +1400,219 @@
       <c r="Z4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.6">
-      <c r="A5" s="5">
+    <row r="5" ht="14.25" spans="1:29">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:33" ht="15.6">
-      <c r="A6" s="5">
+    <row r="6" ht="14.25" spans="1:29">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:33" ht="15.6">
-      <c r="A7" s="5">
+    <row r="7" ht="14.25" spans="1:29">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:33" ht="15.6">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="14.25" spans="1:29">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:33" ht="15.6">
-      <c r="A9" s="5">
+    <row r="9" ht="14.25" spans="1:29">
+      <c r="A9" s="4">
         <v>999</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>